--- a/Table/Table_xls/f服务器等级上限配置.xlsx
+++ b/Table/Table_xls/f服务器等级上限配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28080" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,20 +25,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">作者:
 0-不绑定
 1-绑定</t>
         </r>
@@ -48,20 +40,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">作者:
 0-关联随机：后续“物品1类”~“物品8类”所有物品放在一起随即一次，只可获得一个种类。
 1-不关联随机：后续“物品1类”~“物品8类”每个类别各自随机，可同时获得多个种类。</t>
         </r>
@@ -71,20 +55,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">作者:
 公告编号：没有时填0
 公告格式为4参数：
 参数1-角色名；
@@ -99,20 +75,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">作者:
 0-不发
 1-发</t>
         </r>
@@ -122,20 +90,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">作者:
 用于控制重要物品的总产出。
 填写方式：物品类型库id@总数量，多个物品用分号隔开。</t>
         </r>
@@ -145,20 +105,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">作者:
 0-永不清除
 1-每日0点清除
 2-每周一0点清除
@@ -170,20 +122,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">作者:
 0-不打
 1-打
 奖励ID打元宝标记则该奖励下所有物品均有元宝标记</t>
@@ -195,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157">
   <si>
     <t>id</t>
   </si>
@@ -673,12 +617,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -700,44 +644,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -753,15 +665,31 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -775,14 +703,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -790,9 +741,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -806,53 +770,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="36">
@@ -906,7 +844,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,43 +940,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,55 +982,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1042,30 +1004,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1076,17 +1014,61 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1115,61 +1097,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1179,10 +1117,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1191,137 +1129,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1358,6 +1296,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1411,12 +1352,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -1701,11 +1637,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -1714,7 +1651,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="15" customHeight="1" outlineLevelRow="5" outlineLevelCol="2"/>
@@ -1735,40 +1672,32 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="13">
         <v>155</v>
       </c>
       <c r="C2" s="12"/>
     </row>
-    <row r="3" customHeight="1" spans="1:3">
+    <row r="3" customHeight="1" spans="1:1">
       <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:3">
+    </row>
+    <row r="4" customHeight="1" spans="1:1">
       <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:3">
+    </row>
+    <row r="5" customHeight="1" spans="1:1">
       <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:3">
+    </row>
+    <row r="6" customHeight="1" spans="1:1">
       <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:B16384"/>
   <sheetViews>
@@ -51323,14 +51252,14 @@
       <c r="A16384" s="10"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -51340,7 +51269,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>